--- a/Diverses/GE_Handicap_texte.xlsx
+++ b/Diverses/GE_Handicap_texte.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/60387dca0f89eeaf/LENA_Project/lena_november2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_D6FC7473C3574AFC12484800EA72FFC72BEB8458" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{73E80664-DBD6-436F-965F-5F5DE94459D1}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_F314D77BC3574AFC1248483D4A6A4D47121ACAF9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CED3142-F987-4166-AA49-3FFD0AD19DDE}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="103">
   <si>
     <t>Ja_Stimmen_In_Prozent</t>
   </si>
   <si>
-    <t>Gemeinde_KT_d</t>
-  </si>
-  <si>
-    <t>Gemeinde_KT_f</t>
+    <t>Gemeinde_d</t>
+  </si>
+  <si>
+    <t>Gemeinde_f</t>
   </si>
   <si>
     <t>Storyboard</t>
@@ -37,274 +37,157 @@
     <t>Text_f</t>
   </si>
   <si>
-    <t>Aire-la-Ville GE</t>
-  </si>
-  <si>
-    <t>Anières GE</t>
-  </si>
-  <si>
-    <t>Avully GE</t>
-  </si>
-  <si>
-    <t>Avusy GE</t>
-  </si>
-  <si>
-    <t>Bardonnex GE</t>
-  </si>
-  <si>
-    <t>Bellevue GE</t>
-  </si>
-  <si>
-    <t>Bernex GE</t>
+    <t>Aire-la-Ville</t>
+  </si>
+  <si>
+    <t>Anières</t>
+  </si>
+  <si>
+    <t>Avully</t>
+  </si>
+  <si>
+    <t>Avusy</t>
+  </si>
+  <si>
+    <t>Bardonnex</t>
+  </si>
+  <si>
+    <t>Bellevue</t>
+  </si>
+  <si>
+    <t>Bernex</t>
   </si>
   <si>
     <t>Carouge GE</t>
   </si>
   <si>
-    <t>Cartigny GE</t>
-  </si>
-  <si>
-    <t>Céligny GE</t>
-  </si>
-  <si>
-    <t>Chancy GE</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries GE</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg GE</t>
-  </si>
-  <si>
-    <t>Choulex GE</t>
-  </si>
-  <si>
-    <t>Collex-Bossy GE</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive GE</t>
-  </si>
-  <si>
-    <t>Cologny GE</t>
-  </si>
-  <si>
-    <t>Confignon GE</t>
+    <t>Cartigny</t>
+  </si>
+  <si>
+    <t>Céligny</t>
+  </si>
+  <si>
+    <t>Chancy</t>
+  </si>
+  <si>
+    <t>Chêne-Bougeries</t>
+  </si>
+  <si>
+    <t>Chêne-Bourg</t>
+  </si>
+  <si>
+    <t>Choulex</t>
+  </si>
+  <si>
+    <t>Collex-Bossy</t>
+  </si>
+  <si>
+    <t>Collonge-Bellerive</t>
+  </si>
+  <si>
+    <t>Cologny</t>
+  </si>
+  <si>
+    <t>Confignon</t>
   </si>
   <si>
     <t>Corsier GE</t>
   </si>
   <si>
-    <t>Dardagny GE</t>
-  </si>
-  <si>
-    <t>Genf GE</t>
-  </si>
-  <si>
-    <t>Genthod GE</t>
-  </si>
-  <si>
-    <t>Le Grand-Saconnex GE</t>
-  </si>
-  <si>
-    <t>Gy GE</t>
-  </si>
-  <si>
-    <t>Hermance GE</t>
-  </si>
-  <si>
-    <t>Jussy GE</t>
-  </si>
-  <si>
-    <t>Laconnex GE</t>
-  </si>
-  <si>
-    <t>Lancy GE</t>
-  </si>
-  <si>
-    <t>Meinier GE</t>
-  </si>
-  <si>
-    <t>Meyrin GE</t>
-  </si>
-  <si>
-    <t>Onex GE</t>
-  </si>
-  <si>
-    <t>Perly-Certoux GE</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates GE</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy GE</t>
-  </si>
-  <si>
-    <t>Presinge GE</t>
-  </si>
-  <si>
-    <t>Puplinge GE</t>
-  </si>
-  <si>
-    <t>Russin GE</t>
-  </si>
-  <si>
-    <t>Satigny GE</t>
-  </si>
-  <si>
-    <t>Soral GE</t>
-  </si>
-  <si>
-    <t>Thônex GE</t>
-  </si>
-  <si>
-    <t>Troinex GE</t>
-  </si>
-  <si>
-    <t>Vandoeuvres GE</t>
-  </si>
-  <si>
-    <t>Vernier GE</t>
-  </si>
-  <si>
-    <t>Versoix GE</t>
-  </si>
-  <si>
-    <t>Veyrier GE</t>
-  </si>
-  <si>
-    <t>Aire-la-Ville (GE)</t>
-  </si>
-  <si>
-    <t>Anières (GE)</t>
-  </si>
-  <si>
-    <t>Avully (GE)</t>
-  </si>
-  <si>
-    <t>Avusy (GE)</t>
-  </si>
-  <si>
-    <t>Bardonnex (GE)</t>
-  </si>
-  <si>
-    <t>Bellevue (GE)</t>
-  </si>
-  <si>
-    <t>Bernex (GE)</t>
+    <t>Dardagny</t>
+  </si>
+  <si>
+    <t>Genf</t>
+  </si>
+  <si>
+    <t>Genthod</t>
+  </si>
+  <si>
+    <t>Le Grand-Saconnex</t>
+  </si>
+  <si>
+    <t>Gy</t>
+  </si>
+  <si>
+    <t>Hermance</t>
+  </si>
+  <si>
+    <t>Jussy</t>
+  </si>
+  <si>
+    <t>Laconnex</t>
+  </si>
+  <si>
+    <t>Lancy</t>
+  </si>
+  <si>
+    <t>Meinier</t>
+  </si>
+  <si>
+    <t>Meyrin</t>
+  </si>
+  <si>
+    <t>Onex</t>
+  </si>
+  <si>
+    <t>Perly-Certoux</t>
+  </si>
+  <si>
+    <t>Plan-les-Ouates</t>
+  </si>
+  <si>
+    <t>Pregny-Chambésy</t>
+  </si>
+  <si>
+    <t>Presinge</t>
+  </si>
+  <si>
+    <t>Puplinge</t>
+  </si>
+  <si>
+    <t>Russin</t>
+  </si>
+  <si>
+    <t>Satigny</t>
+  </si>
+  <si>
+    <t>Soral</t>
+  </si>
+  <si>
+    <t>Thônex</t>
+  </si>
+  <si>
+    <t>Troinex</t>
+  </si>
+  <si>
+    <t>Vandoeuvres</t>
+  </si>
+  <si>
+    <t>Vernier</t>
+  </si>
+  <si>
+    <t>Versoix</t>
+  </si>
+  <si>
+    <t>Veyrier</t>
   </si>
   <si>
     <t>Carouge (GE)</t>
   </si>
   <si>
-    <t>Cartigny (GE)</t>
-  </si>
-  <si>
-    <t>Céligny (GE)</t>
-  </si>
-  <si>
-    <t>Chancy (GE)</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries (GE)</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg (GE)</t>
-  </si>
-  <si>
-    <t>Choulex (GE)</t>
-  </si>
-  <si>
-    <t>Collex-Bossy (GE)</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive (GE)</t>
-  </si>
-  <si>
-    <t>Cologny (GE)</t>
-  </si>
-  <si>
-    <t>Confignon (GE)</t>
-  </si>
-  <si>
     <t>Corsier (GE)</t>
   </si>
   <si>
-    <t>Dardagny (GE)</t>
-  </si>
-  <si>
-    <t>Genève (GE)</t>
-  </si>
-  <si>
-    <t>Genthod (GE)</t>
-  </si>
-  <si>
-    <t>Le Grand-Saconnex (GE)</t>
-  </si>
-  <si>
-    <t>Gy (GE)</t>
-  </si>
-  <si>
-    <t>Hermance (GE)</t>
-  </si>
-  <si>
-    <t>Jussy (GE)</t>
-  </si>
-  <si>
-    <t>Laconnex (GE)</t>
-  </si>
-  <si>
-    <t>Lancy (GE)</t>
-  </si>
-  <si>
-    <t>Meinier (GE)</t>
-  </si>
-  <si>
-    <t>Meyrin (GE)</t>
-  </si>
-  <si>
-    <t>Onex (GE)</t>
-  </si>
-  <si>
-    <t>Perly-Certoux (GE)</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates (GE)</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy (GE)</t>
-  </si>
-  <si>
-    <t>Presinge (GE)</t>
-  </si>
-  <si>
-    <t>Puplinge (GE)</t>
-  </si>
-  <si>
-    <t>Russin (GE)</t>
-  </si>
-  <si>
-    <t>Satigny (GE)</t>
-  </si>
-  <si>
-    <t>Soral (GE)</t>
-  </si>
-  <si>
-    <t>Thônex (GE)</t>
-  </si>
-  <si>
-    <t>Troinex (GE)</t>
-  </si>
-  <si>
-    <t>Vandoeuvres (GE)</t>
-  </si>
-  <si>
-    <t>Vernier (GE)</t>
-  </si>
-  <si>
-    <t>Versoix (GE)</t>
-  </si>
-  <si>
-    <t>Veyrier (GE)</t>
+    <t>Genève</t>
+  </si>
+  <si>
+    <t>Intro_Sonderfall</t>
+  </si>
+  <si>
+    <t>Intro_Unanimous_Ja;KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Unanimous_Nein;KantonPhrase_Highest_No_Kant</t>
   </si>
   <si>
     <t>Intro_Nein;KantonPhrase_Nein_Nein</t>
@@ -313,145 +196,139 @@
     <t>Intro_Ja;KantonPhrase_Ja_Nein</t>
   </si>
   <si>
-    <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
-  </si>
-  <si>
-    <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
-  </si>
-  <si>
-    <t>Aire-la-Ville rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 57,8 pourcent de non. Aire-la-Ville a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Anières rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 50,5 pourcent de non. Anières a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Avully, les habitants disent oui à 56,8 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Avully a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 76,2 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Avusy. Avusy a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Bardonnex, les habitants disent oui à 96,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Bardonnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Bellevue, les habitants disent oui à 99,2 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. C'est à Bellevue que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
-  </si>
-  <si>
-    <t>A Bernex, les habitants disent oui à 51,1 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Bernex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Carouge (GE) approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 82,1 pourcent de oui. Carouge (GE) a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 81,4 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Cartigny. Cartigny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Céligny rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 72,9 pourcent de non. Céligny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Chancy approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 98,4 pourcent de oui. Chancy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Chêne-Bougeries approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 89 pourcent de oui. Chêne-Bougeries a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Chêne-Bourg rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 59,7 pourcent de non. Chêne-Bourg a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 91,1 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Choulex. C'est à Choulex que le refus le plus net de cet objet a été enregistré dans le canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 60,2 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Collex-Bossy. Collex-Bossy a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Collonge-Bellerive rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 59,4 pourcent de non. Collonge-Bellerive a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 51,4 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Cologny. Cologny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Confignon, les habitants disent non à 69,7 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Confignon a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Corsier (GE), les habitants disent non à 58,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Corsier (GE) a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Dardagny, les habitants disent non à 65,6 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Dardagny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Genève rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 57,8 pourcent de non. Genève a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Genthod, les habitants disent non à 69,6 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Genthod a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Au Grand-Saconnex, les habitants disent oui à 61,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Le Grand-Saconnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Gy approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 77,6 pourcent de oui. Gy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 83,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Hermance. Hermance a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 76,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Jussy. Jussy a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 61,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Laconnex. Laconnex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Lancy approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 53,4 pourcent de oui. Lancy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Meinier approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 75,1 pourcent de oui. Meinier a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Meyrin, les habitants disent oui à 51,4 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Meyrin a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Onex approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 51,3 pourcent de oui. Onex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Perly-Certoux rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 50,6 pourcent de non. Perly-Certoux a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Plan-les-Ouates rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 50,3 pourcent de non. Plan-les-Ouates a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>Pregny-Chambésy approuve la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 54,1 pourcent de oui. Pregny-Chambésy a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>A Presinge, les habitants disent oui à 51,1 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Presinge a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est oui à 53,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Puplinge. Puplinge a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>Russin rejette la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens avec 64,2 pourcent de non. Russin a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Satigny, les habitants disent non à 54,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Satigny a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Soral, les habitants disent non à 82,3 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Soral a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Thônex, les habitants disent oui à 84,4 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Thônex a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 77,4 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Troinex. Troinex a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Vandoeuvres, les habitants disent non à 65,9 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Vandoeuvres a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Vernier, les habitants disent oui à 52,7 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Vernier a approuvé le texte, contrairement à son canton.</t>
-  </si>
-  <si>
-    <t>C'est non à 59,9 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens à Versoix. Versoix a rejeté le texte, tout comme son canton.</t>
-  </si>
-  <si>
-    <t>A Veyrier, les habitants disent non à 86,5 pourcent à la modification constitutionnelle permettant aux handicapés d'obtenir les mêmes droits que les autres citoyens. Veyrier a rejeté le texte, tout comme son canton.</t>
+    <t>Egalité parfaite à Aire-la-Ville! Les électeurs de cette commune sont 500 à accepter la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" et 500 à la refuser.</t>
+  </si>
+  <si>
+    <t>Résultat clair et net à Anières. Les 1'000 électeurs de cette commune qui se sont rendus aux urnes dimanche acceptent tous la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". C'est à Anières que la forte acceptation de cet objet a été enregistrée dans le canton.</t>
+  </si>
+  <si>
+    <t>Refus clair et net à Avully. Les 1'000 électeurs de cette commune qui se sont rendus aux urnes dimanche rejettent tous la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". C'est à Avully que le refus le plus net de cet objet a été enregistré dans le canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 57,8 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Avusy. Avusy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Bardonnex, les habitants disent oui à 80 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Bardonnex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Bellevue, les habitants disent non à 80 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Bellevue a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Bernex, les habitants disent non à 50,5 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Bernex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Carouge (GE) approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 56,8 pourcent de oui. Carouge (GE) a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 76,2 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Cartigny. Cartigny a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Céligny approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 96,5 pourcent de oui. Céligny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chancy approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 99,2 pourcent de oui. Chancy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chêne-Bougeries approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 51,1 pourcent de oui. Chêne-Bougeries a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Chêne-Bourg approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 82,1 pourcent de oui. Chêne-Bourg a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 81,4 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Choulex. Choulex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 72,9 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Collex-Bossy. Collex-Bossy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Collonge-Bellerive approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 98,4 pourcent de oui. Collonge-Bellerive a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 89 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Cologny. Cologny a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Confignon, les habitants disent non à 59,7 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Confignon a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Corsier (GE), les habitants disent non à 91,1 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Corsier (GE) a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Dardagny, les habitants disent non à 60,2 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Dardagny a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Genève rejette la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 59,4 pourcent de non. Genève a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Genthod, les habitants disent non à 51,4 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Genthod a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Au Grand-Saconnex, les habitants disent non à 69,7 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Le Grand-Saconnex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Gy rejette la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 58,5 pourcent de non. Gy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 65,6 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Hermance. Hermance a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 57,8 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Jussy. Jussy a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 69,6 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Laconnex. Laconnex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Lancy approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 61,5 pourcent de oui. Lancy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Meinier approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 77,6 pourcent de oui. Meinier a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Meyrin, les habitants disent non à 83,5 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Meyrin a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Onex rejette la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 76,5 pourcent de non. Onex a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>Perly-Certoux approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 61,5 pourcent de oui. Perly-Certoux a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Plan-les-Ouates approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 53,4 pourcent de oui. Plan-les-Ouates a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Pregny-Chambésy approuve la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 75,1 pourcent de oui. Pregny-Chambésy a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Presinge, les habitants disent oui à 51,4 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Presinge a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 51,3 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Puplinge. Puplinge a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>Russin rejette la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" avec 50,6 pourcent de non. Russin a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Satigny, les habitants disent non à 50,3 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Satigny a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Soral, les habitants disent oui à 54,1 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Soral a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Thônex, les habitants disent oui à 51,1 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Thônex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>C'est oui à 53,5 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Troinex. Troinex a approuvé le texte, contrairement à son canton.</t>
+  </si>
+  <si>
+    <t>A Vandoeuvres, les habitants disent non à 64,2 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Vandoeuvres a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Vernier, les habitants disent non à 54,5 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Vernier a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>C'est non à 82,3 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement" à Versoix. Versoix a rejeté le texte, tout comme son canton.</t>
+  </si>
+  <si>
+    <t>A Veyrier, les habitants disent oui à 84,4 pourcent à la modification constitutionnelle empêchant la justice de suspendre de leurs droits politiques "les personnes durablement incapables de discernement". Veyrier a approuvé le texte, contrairement à son canton.</t>
   </si>
 </sst>
 </file>
@@ -827,19 +704,18 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.21875" style="1" customWidth="1"/>
+    <col min="2" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -856,769 +732,769 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>42.191142191142191</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>49.522734270758491</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>56.82682336674732</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>23.84775975590172</v>
+        <v>42.191142191142191</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>96.50570497147514</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>99.20697858842189</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>51.054530317746632</v>
+        <v>49.522734270758491</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>82.108389012620634</v>
+        <v>56.82682336674732</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>18.557625261480226</v>
+        <v>23.84775975590172</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>27.145051569014704</v>
+        <v>96.50570497147514</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>98.416261379224338</v>
+        <v>99.20697858842189</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>88.957970654066159</v>
+        <v>51.054530317746632</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>40.27690371302706</v>
+        <v>82.108389012620634</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8.8758041653036752</v>
+        <v>18.557625261480226</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>39.807778274474742</v>
+        <v>27.145051569014704</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>40.630262208323309</v>
+        <v>98.416261379224338</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>48.63616121131151</v>
+        <v>88.957970654066159</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>30.277406912920931</v>
+        <v>40.27690371302706</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>41.497478339583601</v>
+        <v>8.8758041653036752</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>34.369686665047368</v>
+        <v>39.807778274474742</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>42.235915492957744</v>
+        <v>40.630262208323309</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D22" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>30.351715154146763</v>
+        <v>48.63616121131151</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>61.481402988237789</v>
+        <v>30.277406912920931</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>77.568904593639573</v>
+        <v>41.497478339583601</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>16.47325219360317</v>
+        <v>34.369686665047368</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23.481372728941089</v>
+        <v>42.235915492957744</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>61.547911547911546</v>
+        <v>30.351715154146763</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>53.432474494207156</v>
+        <v>61.481402988237789</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>75.136147038801909</v>
+        <v>77.568904593639573</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>51.42313787638669</v>
+        <v>16.47325219360317</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>51.287066246056781</v>
+        <v>23.481372728941089</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="D32" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>49.438202247191015</v>
+        <v>61.547911547911546</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>49.719416386083054</v>
+        <v>53.432474494207156</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>54.118251267894976</v>
+        <v>75.136147038801909</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>51.059256984955482</v>
+        <v>51.42313787638669</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>53.542857142857144</v>
+        <v>51.287066246056781</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>35.785851634449955</v>
+        <v>49.438202247191015</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>45.521211165431318</v>
+        <v>49.719416386083054</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>17.67970401691332</v>
+        <v>54.118251267894976</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>84.446210916799146</v>
+        <v>51.059256984955482</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>22.56717501815541</v>
+        <v>53.542857142857144</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>34.080827994085759</v>
+        <v>35.785851634449955</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>52.718832891246684</v>
+        <v>45.521211165431318</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>40.085810603738892</v>
+        <v>17.67970401691332</v>
       </c>
       <c r="B45" t="s">
         <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>13.500784929356358</v>
+        <v>84.446210916799146</v>
       </c>
       <c r="B46" t="s">
         <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
